--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
@@ -441,25 +441,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.9019097942239263</v>
+        <v>0.1412068655553568</v>
       </c>
       <c r="C2">
-        <v>0.03436668250137703</v>
+        <v>0.03888848024592173</v>
       </c>
       <c r="D2">
-        <v>0.4966352308014985</v>
+        <v>0.2744609427486122</v>
       </c>
       <c r="E2">
-        <v>-0.2838682581198427</v>
+        <v>-0.235231901775319</v>
       </c>
       <c r="F2">
-        <v>75.89701991107002</v>
+        <v>29.96816483908833</v>
       </c>
       <c r="G2">
-        <v>97.99516028806302</v>
+        <v>98.80967168531303</v>
       </c>
       <c r="H2">
-        <v>96.32507519358447</v>
+        <v>96.05520876326425</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -467,25 +467,25 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.2288685713905734</v>
+        <v>-0.8629830126873658</v>
       </c>
       <c r="C3">
-        <v>0.9755601296293894</v>
+        <v>0.7619976890321466</v>
       </c>
       <c r="D3">
-        <v>1.268933639155877</v>
+        <v>1.174308772804542</v>
       </c>
       <c r="E3">
-        <v>0.07334576469057753</v>
+        <v>-0.803499379545246</v>
       </c>
       <c r="F3">
-        <v>96.72983146807613</v>
+        <v>69.60649528290904</v>
       </c>
       <c r="G3">
-        <v>97.54938535097946</v>
+        <v>97.96646863542702</v>
       </c>
       <c r="H3">
-        <v>96.21894752344667</v>
+        <v>95.12136927754187</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -493,25 +493,25 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.5558286596476901</v>
+        <v>0.1466943608875539</v>
       </c>
       <c r="C4">
-        <v>0.1596364042267934</v>
+        <v>0.2959403348166046</v>
       </c>
       <c r="D4">
-        <v>-0.2776496424110388</v>
+        <v>-0.2303319100746397</v>
       </c>
       <c r="E4">
-        <v>0.9120335503410725</v>
+        <v>0.6399546350019822</v>
       </c>
       <c r="F4">
-        <v>59.61433044898084</v>
+        <v>20.11364921925181</v>
       </c>
       <c r="G4">
-        <v>97.40928996804395</v>
+        <v>96.86018438497923</v>
       </c>
       <c r="H4">
-        <v>96.23381394809185</v>
+        <v>94.8521361022333</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -519,25 +519,25 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>-0.1025197603236063</v>
+        <v>-0.5195417871016658</v>
       </c>
       <c r="C5">
-        <v>0.07968329951295504</v>
+        <v>0.001403279013875681</v>
       </c>
       <c r="D5">
-        <v>-0.04965526451627196</v>
+        <v>-0.1203563719034932</v>
       </c>
       <c r="E5">
-        <v>-0.2735601758198279</v>
+        <v>-0.1552852937165759</v>
       </c>
       <c r="F5">
-        <v>74.84000375630147</v>
+        <v>3.070044701438284</v>
       </c>
       <c r="G5">
-        <v>97.3711449072934</v>
+        <v>98.60089019564199</v>
       </c>
       <c r="H5">
-        <v>96.22924191220559</v>
+        <v>97.08071733675607</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -545,25 +545,25 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1.637015897766834</v>
+        <v>1.821489679462624</v>
       </c>
       <c r="C6">
-        <v>-0.3057057436049248</v>
+        <v>-0.2716586800529331</v>
       </c>
       <c r="D6">
-        <v>-0.11354307970638</v>
+        <v>0.0170193989029965</v>
       </c>
       <c r="E6">
-        <v>-0.4068664217981722</v>
+        <v>-0.1441517209098913</v>
       </c>
       <c r="F6">
-        <v>80.33389407236042</v>
+        <v>3.748705388141238</v>
       </c>
       <c r="G6">
-        <v>97.38796521836449</v>
+        <v>98.15428500623874</v>
       </c>
       <c r="H6">
-        <v>96.19608633133956</v>
+        <v>94.78077109621393</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>d=1</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>d=5</t>
+  </si>
+  <si>
+    <t>d=6</t>
   </si>
   <si>
     <t>d=7</t>
@@ -407,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +438,13 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>0.1412068655553568</v>
@@ -456,15 +462,18 @@
         <v>29.96816483908833</v>
       </c>
       <c r="G2">
+        <v>95.83815861018448</v>
+      </c>
+      <c r="H2">
         <v>98.80967168531303</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>96.05520876326425</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>-0.8629830126873658</v>
@@ -482,15 +491,18 @@
         <v>69.60649528290904</v>
       </c>
       <c r="G3">
+        <v>99.02524496274168</v>
+      </c>
+      <c r="H3">
         <v>97.96646863542702</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>95.12136927754187</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>0.1466943608875539</v>
@@ -508,15 +520,18 @@
         <v>20.11364921925181</v>
       </c>
       <c r="G4">
+        <v>98.09409263363455</v>
+      </c>
+      <c r="H4">
         <v>96.86018438497923</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>94.8521361022333</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>-0.5195417871016658</v>
@@ -534,15 +549,18 @@
         <v>3.070044701438284</v>
       </c>
       <c r="G5">
+        <v>98.33581724694211</v>
+      </c>
+      <c r="H5">
         <v>98.60089019564199</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>97.08071733675607</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1.821489679462624</v>
@@ -560,9 +578,12 @@
         <v>3.748705388141238</v>
       </c>
       <c r="G6">
+        <v>98.32153906875332</v>
+      </c>
+      <c r="H6">
         <v>98.15428500623874</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>94.78077109621393</v>
       </c>
     </row>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Multi_d/MOD_4_dist_Sieve_Bootstrap.xlsx
@@ -462,13 +462,13 @@
         <v>29.96816483908833</v>
       </c>
       <c r="G2">
-        <v>95.83815861018448</v>
+        <v>94.22446084399637</v>
       </c>
       <c r="H2">
-        <v>98.80967168531303</v>
+        <v>98.82114311930236</v>
       </c>
       <c r="I2">
-        <v>96.05520876326425</v>
+        <v>90.54662346319651</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,13 +491,13 @@
         <v>69.60649528290904</v>
       </c>
       <c r="G3">
-        <v>99.02524496274168</v>
+        <v>99.40169005610092</v>
       </c>
       <c r="H3">
-        <v>97.96646863542702</v>
+        <v>97.23717927663057</v>
       </c>
       <c r="I3">
-        <v>95.12136927754187</v>
+        <v>97.44278969460754</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -520,13 +520,13 @@
         <v>20.11364921925181</v>
       </c>
       <c r="G4">
-        <v>98.09409263363455</v>
+        <v>98.20421142833979</v>
       </c>
       <c r="H4">
-        <v>96.86018438497923</v>
+        <v>98.70888207145933</v>
       </c>
       <c r="I4">
-        <v>94.8521361022333</v>
+        <v>96.72664470863005</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -549,13 +549,13 @@
         <v>3.070044701438284</v>
       </c>
       <c r="G5">
-        <v>98.33581724694211</v>
+        <v>97.84177238794999</v>
       </c>
       <c r="H5">
-        <v>98.60089019564199</v>
+        <v>98.22390845754153</v>
       </c>
       <c r="I5">
-        <v>97.08071733675607</v>
+        <v>94.70304416476111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,13 +578,13 @@
         <v>3.748705388141238</v>
       </c>
       <c r="G6">
-        <v>98.32153906875332</v>
+        <v>98.52366317681302</v>
       </c>
       <c r="H6">
-        <v>98.15428500623874</v>
+        <v>98.55556892001933</v>
       </c>
       <c r="I6">
-        <v>94.78077109621393</v>
+        <v>94.73406432600048</v>
       </c>
     </row>
   </sheetData>
